--- a/biology/Biochimie/Tellurocystéine/Tellurocystéine.xlsx
+++ b/biology/Biochimie/Tellurocystéine/Tellurocystéine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tellurocyst%C3%A9ine</t>
+          <t>Tellurocystéine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La tellurocystéine est un acide L-α-aminé analogue de la cystéine et de la sélénocystéine dans lequel un atome de tellure remplace respectivement l'atome de soufre et de sélénium.
-L'énergie de liaison du tellure au carbone n'est que de 200 kJ·mol-1, à comparer à 234 kJ·mol-1 pour le sélénium et 272 kJ·mol-1 pour le soufre[2], ce qui explique probablement que la tellurocystéine est normalement absente des êtres vivants, contrairement à ses homologues protéinogènes que sont la cystéine et la sélénocystéine, et demeure peu étudiée[3].
-Cependant, certains organismes comme le champignon Aspergillus fumigatus  sont capables d'incorporer la tellurocystéine et la tellurométhionine dans leurs protéines lorsqu'on les fait croître dans un milieu dépourvu de soufre[4]. On a observé que la tellurocystéine, lorsqu'elle est incorporée à une glutathion S-transférase, inhibe efficacement l'aminoacylation, tandis qu'elle active les glutathion peroxydases[5].
-La L-tellurocystéine peut être obtenue en faisant réagir du tellure avec du (2R)-2-[(tert-butoxycarbonyl)amino]-3-iodopropionate de méthyle dans le tétrahydrofurane en présence de triéthylborohydrure de lithium, ce qui donne une huile rouge qui est acidifiée puis traitée à la soude avant adjonction d'acide citrique pour amener son pH à 4,0 et former un solide orange après filtration et séchage[6].
+L'énergie de liaison du tellure au carbone n'est que de 200 kJ·mol-1, à comparer à 234 kJ·mol-1 pour le sélénium et 272 kJ·mol-1 pour le soufre, ce qui explique probablement que la tellurocystéine est normalement absente des êtres vivants, contrairement à ses homologues protéinogènes que sont la cystéine et la sélénocystéine, et demeure peu étudiée.
+Cependant, certains organismes comme le champignon Aspergillus fumigatus  sont capables d'incorporer la tellurocystéine et la tellurométhionine dans leurs protéines lorsqu'on les fait croître dans un milieu dépourvu de soufre. On a observé que la tellurocystéine, lorsqu'elle est incorporée à une glutathion S-transférase, inhibe efficacement l'aminoacylation, tandis qu'elle active les glutathion peroxydases.
+La L-tellurocystéine peut être obtenue en faisant réagir du tellure avec du (2R)-2-[(tert-butoxycarbonyl)amino]-3-iodopropionate de méthyle dans le tétrahydrofurane en présence de triéthylborohydrure de lithium, ce qui donne une huile rouge qui est acidifiée puis traitée à la soude avant adjonction d'acide citrique pour amener son pH à 4,0 et former un solide orange après filtration et séchage.
 </t>
         </is>
       </c>
